--- a/Data/SoilData.xlsx
+++ b/Data/SoilData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredflater/Desktop/Flater_soilColumnAnalysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BC978D-37DC-0947-B868-303FEC1B844C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC3115-28E8-024E-A3EB-1C882DDD99F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soil_Samples_Soil_Health_Base" sheetId="2" r:id="rId1"/>
     <sheet name="Soil_Samples_DNA_Base" sheetId="3" r:id="rId2"/>
     <sheet name="Soil_Samples_DNA" sheetId="1" r:id="rId3"/>
+    <sheet name="ColumnFieldInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4136" uniqueCount="205">
   <si>
     <t>Column</t>
   </si>
@@ -661,12 +662,18 @@
   <si>
     <t>unique_sample_id</t>
   </si>
+  <si>
+    <t>Hole_depth(cm)</t>
+  </si>
+  <si>
+    <t>Distance_to_soil_from_top_of_column(cm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -804,6 +811,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2444,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -24838,4 +24851,629 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D08E049-0915-2F42-9C3D-7F575934EF80}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>